--- a/data/Indicators.xlsx
+++ b/data/Indicators.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/bertolaa_who_int/Documents/_Personal/Famiglia/Andrea/progetti/Python/Apps/well-being/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{A88298E8-F077-43FE-A2CF-C3E477E9F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AE39826-CC47-4683-9679-4C433C3EE05E}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="8_{A88298E8-F077-43FE-A2CF-C3E477E9F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{748964E9-C52F-42E0-B39B-583D480241E0}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1095" windowWidth="27570" windowHeight="15105" xr2:uid="{68CBDE48-A299-45F3-AEF9-F6BDBD70AE78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{68CBDE48-A299-45F3-AEF9-F6BDBD70AE78}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Indicators!$B$1:$H$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Indicators!$B$1:$H$180</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="412">
   <si>
     <t>Indicator.datasource</t>
   </si>
@@ -456,15 +456,6 @@
     <t>Crude death rate per 1000 population, by sex</t>
   </si>
   <si>
-    <t>HFA_43</t>
-  </si>
-  <si>
-    <t>Life expectancy at birth (years)</t>
-  </si>
-  <si>
-    <t>Life expectancy at birth (years), by sex</t>
-  </si>
-  <si>
     <t>HFA_55</t>
   </si>
   <si>
@@ -1188,33 +1179,9 @@
     <t>WHO/HESRI 2</t>
   </si>
   <si>
-    <t>Percentage of adults reporting poor or fair health</t>
-  </si>
-  <si>
-    <t>Percentage of adults reporting limitations in daily activities due to health problems</t>
-  </si>
-  <si>
-    <t>Percentage of adults reporting poor life satisfaction</t>
-  </si>
-  <si>
     <t>Percentage of people living in an overcrowded dwelling that also lacks a bath and indoor toilet, or is damp or too dark</t>
   </si>
   <si>
-    <t>Percentage of people who cannot afford to keep their home adequately warm</t>
-  </si>
-  <si>
-    <t>Percentage of young people who are not in employment, education or training</t>
-  </si>
-  <si>
-    <t>Percentage of people aged 16+ years reporting unmet needs for health care</t>
-  </si>
-  <si>
-    <t>Percentage of employed persons aged 18+ years with income below 60% of median equivalised disposable income (after social transfers)</t>
-  </si>
-  <si>
-    <t>Percentage of people living in a household where housing costs are more than 40% of disposable household income (net of housing allowances)</t>
-  </si>
-  <si>
     <t>per_lm_alllm.cov_q1_tot</t>
   </si>
   <si>
@@ -1288,13 +1255,31 @@
   </si>
   <si>
     <t>HFA_583</t>
+  </si>
+  <si>
+    <t>Health care expenditure by financing scheme</t>
+  </si>
+  <si>
+    <t>hlth_sha11_hf</t>
+  </si>
+  <si>
+    <t>tepsr_sp310</t>
+  </si>
+  <si>
+    <t>Out-of-pocket expenditure on healthcare</t>
+  </si>
+  <si>
+    <t>HFA_70</t>
+  </si>
+  <si>
+    <t>Estimated life expectancy at birth (years)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1446,6 +1431,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF515560"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1803,7 +1795,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1815,6 +1807,10 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1860,7 +1856,18 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2185,10 +2192,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FCB43C-0B1C-4728-A853-91B742B54E95}">
-  <dimension ref="A1:H176"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2197,17 +2205,17 @@
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="76.375" customWidth="1"/>
     <col min="6" max="6" width="52.75" customWidth="1"/>
     <col min="7" max="7" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2251,7 +2259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2323,7 +2331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2346,7 +2354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2369,7 +2377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2392,7 +2400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2415,7 +2423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2438,7 +2446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2507,7 +2515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2530,7 +2538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2553,7 +2561,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2576,7 +2584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2599,7 +2607,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2622,7 +2630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2645,7 +2653,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2668,7 +2676,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2714,7 +2722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2737,7 +2745,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2760,7 +2768,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2783,7 +2791,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2832,7 +2840,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2855,7 +2863,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2878,7 +2886,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2901,7 +2909,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2924,7 +2932,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2947,7 +2955,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2970,7 +2978,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2993,7 +3001,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3016,7 +3024,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3039,7 +3047,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3062,7 +3070,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3085,7 +3093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3108,7 +3116,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3131,7 +3139,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3154,7 +3162,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3177,7 +3185,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3223,7 +3231,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3246,7 +3254,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3269,7 +3277,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3292,7 +3300,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3315,7 +3323,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3352,16 +3360,16 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>411</v>
       </c>
       <c r="F50" t="s">
-        <v>141</v>
+        <v>411</v>
       </c>
       <c r="G50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3375,21 +3383,21 @@
         <v>10</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s">
         <v>121</v>
@@ -3398,13 +3406,13 @@
         <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3421,16 +3429,16 @@
         <v>10</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3444,16 +3452,16 @@
         <v>7</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3467,16 +3475,16 @@
         <v>10</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3490,16 +3498,16 @@
         <v>10</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3507,22 +3515,22 @@
         <v>0</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3530,22 +3538,22 @@
         <v>0</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3553,22 +3561,22 @@
         <v>0</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3576,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3599,22 +3607,22 @@
         <v>0</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3622,22 +3630,22 @@
         <v>0</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3645,22 +3653,22 @@
         <v>0</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3668,22 +3676,22 @@
         <v>0</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3691,22 +3699,22 @@
         <v>0</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3714,22 +3722,22 @@
         <v>0</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3737,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3760,22 +3768,22 @@
         <v>0</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3783,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3806,22 +3814,22 @@
         <v>0</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3829,22 +3837,22 @@
         <v>0</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3852,22 +3860,22 @@
         <v>0</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3875,22 +3883,22 @@
         <v>0</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3898,22 +3906,22 @@
         <v>0</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E74" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3921,22 +3929,22 @@
         <v>0</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E75" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3944,22 +3952,22 @@
         <v>0</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E76" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3967,22 +3975,22 @@
         <v>0</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3990,22 +3998,22 @@
         <v>0</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4013,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4036,22 +4044,22 @@
         <v>0</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4059,22 +4067,22 @@
         <v>0</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E81" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4082,22 +4090,22 @@
         <v>0</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E82" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4105,22 +4113,22 @@
         <v>0</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E83" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4128,22 +4136,22 @@
         <v>0</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4151,22 +4159,22 @@
         <v>0</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4174,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="C86" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E86" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4197,22 +4205,22 @@
         <v>0</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E87" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4220,22 +4228,22 @@
         <v>0</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E88" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4243,22 +4251,22 @@
         <v>0</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E89" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4266,22 +4274,22 @@
         <v>0</v>
       </c>
       <c r="C90" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E90" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4289,22 +4297,22 @@
         <v>0</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4312,22 +4320,22 @@
         <v>0</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4335,22 +4343,22 @@
         <v>0</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4358,22 +4366,22 @@
         <v>0</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4381,22 +4389,22 @@
         <v>0</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4404,22 +4412,22 @@
         <v>0</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4427,22 +4435,22 @@
         <v>0</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4450,22 +4458,22 @@
         <v>0</v>
       </c>
       <c r="C98" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E98" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4473,22 +4481,22 @@
         <v>0</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4496,22 +4504,22 @@
         <v>0</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4519,22 +4527,22 @@
         <v>0</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4542,22 +4550,22 @@
         <v>0</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4565,22 +4573,22 @@
         <v>0</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4588,22 +4596,22 @@
         <v>0</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4611,22 +4619,22 @@
         <v>0</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4634,22 +4642,22 @@
         <v>0</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4657,22 +4665,22 @@
         <v>0</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4680,22 +4688,22 @@
         <v>0</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4703,22 +4711,22 @@
         <v>0</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4726,22 +4734,22 @@
         <v>0</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4749,22 +4757,22 @@
         <v>0</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4772,22 +4780,22 @@
         <v>0</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4795,22 +4803,22 @@
         <v>0</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4818,22 +4826,22 @@
         <v>0</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4841,22 +4849,22 @@
         <v>0</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4864,22 +4872,22 @@
         <v>0</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4887,22 +4895,22 @@
         <v>0</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4910,22 +4918,22 @@
         <v>0</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4933,22 +4941,22 @@
         <v>0</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4956,22 +4964,22 @@
         <v>0</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4979,22 +4987,22 @@
         <v>0</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5002,22 +5010,22 @@
         <v>0</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5025,22 +5033,22 @@
         <v>0</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5048,22 +5056,22 @@
         <v>0</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5071,22 +5079,22 @@
         <v>0</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5094,22 +5102,22 @@
         <v>0</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5117,22 +5125,22 @@
         <v>0</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5140,22 +5148,22 @@
         <v>0</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5163,22 +5171,22 @@
         <v>0</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5186,22 +5194,22 @@
         <v>0</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5209,22 +5217,22 @@
         <v>0</v>
       </c>
       <c r="C131" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E131" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5232,22 +5240,22 @@
         <v>0</v>
       </c>
       <c r="C132" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D132" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E132" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5255,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="C133" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E133" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5278,22 +5286,22 @@
         <v>0</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5301,22 +5309,22 @@
         <v>0</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5324,22 +5332,22 @@
         <v>0</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5347,22 +5355,22 @@
         <v>0</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5370,22 +5378,22 @@
         <v>0</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5393,22 +5401,22 @@
         <v>0</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5416,22 +5424,22 @@
         <v>0</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5439,22 +5447,22 @@
         <v>0</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5462,22 +5470,22 @@
         <v>0</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5485,22 +5493,22 @@
         <v>0</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5508,22 +5516,22 @@
         <v>0</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5531,22 +5539,22 @@
         <v>0</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5554,22 +5562,22 @@
         <v>0</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5577,22 +5585,22 @@
         <v>0</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5600,22 +5608,22 @@
         <v>0</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5623,22 +5631,22 @@
         <v>0</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5646,22 +5654,22 @@
         <v>0</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5669,22 +5677,22 @@
         <v>0</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5692,22 +5700,22 @@
         <v>0</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5715,22 +5723,22 @@
         <v>0</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5738,22 +5746,22 @@
         <v>0</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5761,22 +5769,22 @@
         <v>0</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5784,22 +5792,22 @@
         <v>0</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5807,22 +5815,22 @@
         <v>0</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5830,22 +5838,22 @@
         <v>0</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5853,22 +5861,22 @@
         <v>0</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5876,19 +5884,19 @@
         <v>0</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -5905,13 +5913,13 @@
         <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F161" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G161" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5925,13 +5933,13 @@
         <v>10</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5945,36 +5953,36 @@
         <v>10</v>
       </c>
       <c r="E163" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B164" t="b">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
         <v>379</v>
       </c>
-      <c r="F163" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B164" t="b">
-        <v>1</v>
-      </c>
-      <c r="C164" t="s">
-        <v>382</v>
-      </c>
       <c r="D164" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E164" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F164" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G164" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="5" t="b">
         <v>0</v>
       </c>
@@ -5985,16 +5993,16 @@
         <v>7</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="5" t="b">
         <v>0</v>
       </c>
@@ -6005,16 +6013,16 @@
         <v>7</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="5" t="b">
         <v>0</v>
       </c>
@@ -6025,16 +6033,16 @@
         <v>7</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="5" t="b">
         <v>0</v>
       </c>
@@ -6045,16 +6053,16 @@
         <v>7</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="5" t="b">
         <v>0</v>
       </c>
@@ -6065,16 +6073,16 @@
         <v>7</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="5" t="b">
         <v>0</v>
       </c>
@@ -6085,16 +6093,16 @@
         <v>7</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="5" t="b">
         <v>0</v>
       </c>
@@ -6105,16 +6113,16 @@
         <v>7</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="5" t="b">
         <v>0</v>
       </c>
@@ -6125,16 +6133,16 @@
         <v>10</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="5" t="b">
         <v>0</v>
       </c>
@@ -6145,16 +6153,16 @@
         <v>10</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="5" t="b">
         <v>0</v>
       </c>
@@ -6165,16 +6173,16 @@
         <v>10</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="5" t="b">
         <v>0</v>
       </c>
@@ -6185,16 +6193,16 @@
         <v>10</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="5" t="b">
         <v>0</v>
       </c>
@@ -6205,18 +6213,109 @@
         <v>10</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>416</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G178" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H53" xr:uid="{31FA37C4-0D80-4C8B-B627-9DE628798D18}"/>
+  <autoFilter ref="B1:H180" xr:uid="{31FA37C4-0D80-4C8B-B627-9DE628798D18}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="19" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6224,222 +6323,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF1C4BF-EBAF-4251-806B-49314994BDDD}">
-  <dimension ref="D2:J10"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:J5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D2">
-        <v>160</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G2" t="s">
-        <v>369</v>
-      </c>
-      <c r="H2" t="s">
-        <v>383</v>
-      </c>
-      <c r="I2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D3">
-        <v>161</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>382</v>
-      </c>
-      <c r="G3" t="s">
-        <v>369</v>
-      </c>
-      <c r="H3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I3" t="s">
-        <v>384</v>
-      </c>
-      <c r="J3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>162</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G4" t="s">
-        <v>369</v>
-      </c>
-      <c r="H4" t="s">
-        <v>385</v>
-      </c>
-      <c r="I4" t="s">
-        <v>385</v>
-      </c>
-      <c r="J4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>163</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>382</v>
-      </c>
-      <c r="G5" t="s">
-        <v>370</v>
-      </c>
-      <c r="H5" t="s">
-        <v>386</v>
-      </c>
-      <c r="I5" t="s">
-        <v>386</v>
-      </c>
-      <c r="J5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>164</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>382</v>
-      </c>
-      <c r="G6" t="s">
-        <v>370</v>
-      </c>
-      <c r="H6" t="s">
-        <v>387</v>
-      </c>
-      <c r="I6" t="s">
-        <v>387</v>
-      </c>
-      <c r="J6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7">
-        <v>165</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>382</v>
-      </c>
-      <c r="G7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H7" t="s">
-        <v>388</v>
-      </c>
-      <c r="I7" t="s">
-        <v>388</v>
-      </c>
-      <c r="J7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>166</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>382</v>
-      </c>
-      <c r="G8" t="s">
-        <v>372</v>
-      </c>
-      <c r="H8" t="s">
-        <v>389</v>
-      </c>
-      <c r="I8" t="s">
-        <v>389</v>
-      </c>
-      <c r="J8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>167</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G9" t="s">
-        <v>372</v>
-      </c>
-      <c r="H9" t="s">
-        <v>390</v>
-      </c>
-      <c r="I9" t="s">
-        <v>390</v>
-      </c>
-      <c r="J9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>168</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>382</v>
-      </c>
-      <c r="G10" t="s">
-        <v>370</v>
-      </c>
-      <c r="H10" t="s">
-        <v>391</v>
-      </c>
-      <c r="I10" t="s">
-        <v>391</v>
-      </c>
-      <c r="J10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Indicators.xlsx
+++ b/data/Indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/bertolaa_who_int/Documents/_Personal/Famiglia/Andrea/progetti/Python/Apps/well-being/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{A88298E8-F077-43FE-A2CF-C3E477E9F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{748964E9-C52F-42E0-B39B-583D480241E0}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="8_{A88298E8-F077-43FE-A2CF-C3E477E9F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19256690-686D-AE48-8285-2F80669F1866}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{68CBDE48-A299-45F3-AEF9-F6BDBD70AE78}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{68CBDE48-A299-45F3-AEF9-F6BDBD70AE78}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="413">
   <si>
     <t>Indicator.datasource</t>
   </si>
@@ -1273,6 +1273,9 @@
   </si>
   <si>
     <t>Estimated life expectancy at birth (years)</t>
+  </si>
+  <si>
+    <t>Long-term care (health) expenditure</t>
   </si>
 </sst>
 </file>
@@ -1801,7 +1804,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -2196,21 +2199,21 @@
   <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="38.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.75" customWidth="1"/>
-    <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="76.375" customWidth="1"/>
-    <col min="6" max="6" width="52.75" customWidth="1"/>
-    <col min="7" max="7" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="60" customWidth="1"/>
+    <col min="6" max="6" width="74.5" customWidth="1"/>
+    <col min="7" max="7" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>372</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2259,7 +2262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2354,7 +2357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2469,7 +2472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2561,7 +2564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2630,7 +2633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2745,7 +2748,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2791,7 +2794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2814,7 +2817,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2840,7 +2843,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="F28" t="s">
         <v>77</v>
@@ -2863,7 +2866,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2886,7 +2889,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2909,12 +2912,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
@@ -2932,7 +2935,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2978,12 +2981,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
@@ -3001,7 +3004,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3093,7 +3096,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3139,7 +3142,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3208,12 +3211,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
         <v>121</v>
@@ -3231,7 +3234,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3254,7 +3257,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3323,7 +3326,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3438,7 +3441,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3461,7 +3464,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3484,7 +3487,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3507,7 +3510,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3553,7 +3556,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3576,7 +3579,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3622,7 +3625,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3645,7 +3648,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3668,7 +3671,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3691,7 +3694,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3714,7 +3717,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3737,7 +3740,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3760,7 +3763,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3875,7 +3878,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3898,7 +3901,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3967,7 +3970,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4036,7 +4039,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4059,7 +4062,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4082,7 +4085,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4128,7 +4131,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4151,7 +4154,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4220,7 +4223,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4243,7 +4246,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4289,7 +4292,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4358,7 +4361,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4381,7 +4384,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4427,7 +4430,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4450,7 +4453,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4473,7 +4476,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4519,7 +4522,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4542,7 +4545,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4611,7 +4614,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4657,7 +4660,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4680,7 +4683,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4703,7 +4706,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4749,7 +4752,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4772,7 +4775,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4841,7 +4844,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4864,7 +4867,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4887,7 +4890,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4910,7 +4913,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4979,7 +4982,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5002,7 +5005,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5025,7 +5028,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5048,7 +5051,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5071,7 +5074,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5094,7 +5097,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5117,7 +5120,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5163,7 +5166,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5186,7 +5189,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5209,7 +5212,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5232,7 +5235,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5255,7 +5258,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5278,7 +5281,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5301,7 +5304,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5324,7 +5327,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5347,7 +5350,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5370,7 +5373,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5393,7 +5396,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5416,7 +5419,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5439,7 +5442,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5462,7 +5465,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5485,7 +5488,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5531,7 +5534,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5554,7 +5557,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5577,7 +5580,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5600,7 +5603,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5623,7 +5626,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5646,7 +5649,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5669,7 +5672,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5715,7 +5718,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5738,7 +5741,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5761,7 +5764,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5784,7 +5787,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5807,7 +5810,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5853,7 +5856,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5876,7 +5879,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5899,7 +5902,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>160</v>
       </c>
@@ -5922,7 +5925,10 @@
         <v>373</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>161</v>
+      </c>
       <c r="B162" s="5" t="b">
         <v>1</v>
       </c>
@@ -5942,7 +5948,10 @@
         <v>377</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>162</v>
+      </c>
       <c r="B163" s="5" t="b">
         <v>1</v>
       </c>
@@ -5962,7 +5971,10 @@
         <v>378</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>163</v>
+      </c>
       <c r="B164" t="b">
         <v>0</v>
       </c>
@@ -5982,7 +5994,10 @@
         <v>176</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>164</v>
+      </c>
       <c r="B165" s="5" t="b">
         <v>0</v>
       </c>
@@ -6002,7 +6017,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>165</v>
+      </c>
       <c r="B166" s="5" t="b">
         <v>0</v>
       </c>
@@ -6022,7 +6040,10 @@
         <v>383</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>166</v>
+      </c>
       <c r="B167" s="5" t="b">
         <v>0</v>
       </c>
@@ -6042,7 +6063,10 @@
         <v>385</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>167</v>
+      </c>
       <c r="B168" s="5" t="b">
         <v>0</v>
       </c>
@@ -6062,7 +6086,10 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>168</v>
+      </c>
       <c r="B169" s="5" t="b">
         <v>0</v>
       </c>
@@ -6082,7 +6109,10 @@
         <v>389</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>169</v>
+      </c>
       <c r="B170" s="5" t="b">
         <v>0</v>
       </c>
@@ -6102,7 +6132,10 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>170</v>
+      </c>
       <c r="B171" s="5" t="b">
         <v>0</v>
       </c>
@@ -6122,7 +6155,10 @@
         <v>393</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>171</v>
+      </c>
       <c r="B172" s="5" t="b">
         <v>0</v>
       </c>
@@ -6142,7 +6178,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>172</v>
+      </c>
       <c r="B173" s="5" t="b">
         <v>0</v>
       </c>
@@ -6162,7 +6201,10 @@
         <v>397</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>173</v>
+      </c>
       <c r="B174" s="5" t="b">
         <v>0</v>
       </c>
@@ -6182,7 +6224,10 @@
         <v>399</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>174</v>
+      </c>
       <c r="B175" s="5" t="b">
         <v>0</v>
       </c>
@@ -6202,7 +6247,10 @@
         <v>401</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>175</v>
+      </c>
       <c r="B176" s="5" t="b">
         <v>0</v>
       </c>
@@ -6222,7 +6270,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="177" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>176</v>
+      </c>
       <c r="B177" s="4" t="b">
         <v>0</v>
       </c>
@@ -6242,7 +6293,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="178" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>177</v>
+      </c>
       <c r="B178" s="4" t="b">
         <v>0</v>
       </c>
@@ -6262,7 +6316,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="179" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>178</v>
+      </c>
       <c r="B179" s="5" t="b">
         <v>0</v>
       </c>
@@ -6282,7 +6339,10 @@
         <v>407</v>
       </c>
     </row>
-    <row r="180" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>179</v>
+      </c>
       <c r="B180" s="5" t="b">
         <v>0</v>
       </c>
@@ -6329,7 +6389,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Indicators.xlsx
+++ b/data/Indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/bertolaa_who_int/Documents/_Personal/Famiglia/Andrea/progetti/Python/Apps/well-being/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="8_{A88298E8-F077-43FE-A2CF-C3E477E9F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19256690-686D-AE48-8285-2F80669F1866}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{A88298E8-F077-43FE-A2CF-C3E477E9F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77300967-973A-6242-9C41-360D1AAE5F72}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{68CBDE48-A299-45F3-AEF9-F6BDBD70AE78}"/>
+    <workbookView xWindow="6760" yWindow="22100" windowWidth="28800" windowHeight="15720" xr2:uid="{68CBDE48-A299-45F3-AEF9-F6BDBD70AE78}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
@@ -2195,11 +2195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FCB43C-0B1C-4728-A853-91B742B54E95}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2262,7 +2261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2334,7 +2333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2426,7 +2425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2449,7 +2448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2518,7 +2517,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2541,7 +2540,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2610,7 +2609,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2656,7 +2655,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2679,7 +2678,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2771,7 +2770,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2794,7 +2793,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2866,12 +2865,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -2889,7 +2888,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2917,7 +2916,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
@@ -2935,7 +2934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2958,7 +2957,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3050,7 +3049,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3142,7 +3141,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3165,7 +3164,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3211,7 +3210,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3234,7 +3233,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3280,7 +3279,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3326,7 +3325,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3372,7 +3371,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3395,7 +3394,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3441,7 +3440,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3464,7 +3463,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3510,7 +3509,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3533,7 +3532,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3556,7 +3555,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3602,7 +3601,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3625,7 +3624,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3671,7 +3670,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3763,7 +3762,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3786,7 +3785,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3809,7 +3808,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3832,7 +3831,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3855,7 +3854,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3878,7 +3877,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3993,7 +3992,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4016,7 +4015,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4039,7 +4038,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4085,7 +4084,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4108,7 +4107,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4131,7 +4130,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4154,7 +4153,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4177,7 +4176,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4200,7 +4199,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4223,7 +4222,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4246,7 +4245,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4269,7 +4268,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4315,7 +4314,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4338,7 +4337,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4361,7 +4360,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4384,7 +4383,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4407,7 +4406,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4476,7 +4475,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4499,7 +4498,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4522,7 +4521,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4545,7 +4544,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4591,7 +4590,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4614,7 +4613,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4637,7 +4636,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4660,7 +4659,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4683,7 +4682,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4706,7 +4705,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4729,7 +4728,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4752,7 +4751,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4775,7 +4774,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4798,7 +4797,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4821,7 +4820,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4844,7 +4843,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4867,7 +4866,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4982,7 +4981,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5005,7 +5004,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5028,7 +5027,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5051,7 +5050,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5074,7 +5073,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5097,7 +5096,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5120,7 +5119,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5166,7 +5165,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5189,7 +5188,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5212,7 +5211,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5235,7 +5234,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5281,7 +5280,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5304,7 +5303,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5327,7 +5326,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5350,7 +5349,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5373,7 +5372,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5396,7 +5395,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5419,7 +5418,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5465,7 +5464,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5488,7 +5487,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5511,7 +5510,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5557,7 +5556,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5580,7 +5579,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5603,7 +5602,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5649,7 +5648,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5672,7 +5671,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5695,7 +5694,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5741,7 +5740,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5764,7 +5763,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5810,7 +5809,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5833,7 +5832,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5856,7 +5855,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5879,7 +5878,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5971,7 +5970,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5994,7 +5993,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6017,7 +6016,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6040,7 +6039,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6063,7 +6062,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6086,7 +6085,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6109,7 +6108,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6155,7 +6154,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6178,7 +6177,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6224,7 +6223,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6247,7 +6246,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6270,7 +6269,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6316,7 +6315,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6363,13 +6362,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H180" xr:uid="{31FA37C4-0D80-4C8B-B627-9DE628798D18}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="TRUE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:H180" xr:uid="{31FA37C4-0D80-4C8B-B627-9DE628798D18}"/>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/data/Indicators.xlsx
+++ b/data/Indicators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/bertolaa_who_int/Documents/_Personal/Famiglia/Andrea/progetti/Python/Apps/well-being/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="8_{A88298E8-F077-43FE-A2CF-C3E477E9F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77300967-973A-6242-9C41-360D1AAE5F72}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="8_{A88298E8-F077-43FE-A2CF-C3E477E9F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1544D6A-7017-4F4E-BAF2-7541F9A47C59}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="22100" windowWidth="28800" windowHeight="15720" xr2:uid="{68CBDE48-A299-45F3-AEF9-F6BDBD70AE78}"/>
   </bookViews>
@@ -2195,10 +2195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FCB43C-0B1C-4728-A853-91B742B54E95}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2261,7 +2262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2911,7 +2912,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2934,7 +2935,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2985,7 +2986,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
@@ -3003,7 +3004,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3210,7 +3211,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3325,7 +3326,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3532,7 +3533,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3555,7 +3556,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3578,7 +3579,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3624,7 +3625,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3785,7 +3786,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3831,7 +3832,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3854,7 +3855,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3992,7 +3993,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4061,7 +4062,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4130,7 +4131,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4176,7 +4177,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4222,7 +4223,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4245,7 +4246,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4291,7 +4292,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4314,7 +4315,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4360,7 +4361,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4475,7 +4476,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4521,7 +4522,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4590,7 +4591,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4613,7 +4614,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4636,7 +4637,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4682,7 +4683,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4774,7 +4775,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4797,7 +4798,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4843,7 +4844,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4958,7 +4959,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4981,7 +4982,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5004,7 +5005,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5050,7 +5051,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5073,7 +5074,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5096,7 +5097,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5142,7 +5143,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5165,7 +5166,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5211,7 +5212,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5257,7 +5258,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5280,7 +5281,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5303,7 +5304,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5326,7 +5327,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5349,7 +5350,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5372,7 +5373,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5395,7 +5396,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5441,7 +5442,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5464,7 +5465,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5487,7 +5488,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5510,7 +5511,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5533,7 +5534,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5556,7 +5557,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5579,7 +5580,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5625,7 +5626,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5648,7 +5649,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5671,7 +5672,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5694,7 +5695,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5717,7 +5718,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5740,7 +5741,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5763,7 +5764,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5786,7 +5787,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5809,7 +5810,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5855,7 +5856,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5970,7 +5971,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6016,7 +6017,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6039,7 +6040,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6062,7 +6063,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6108,7 +6109,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6131,7 +6132,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6154,7 +6155,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6177,7 +6178,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6246,7 +6247,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6269,7 +6270,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6362,7 +6363,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:H180" xr:uid="{31FA37C4-0D80-4C8B-B627-9DE628798D18}"/>
+  <autoFilter ref="B1:H180" xr:uid="{31FA37C4-0D80-4C8B-B627-9DE628798D18}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/data/Indicators.xlsx
+++ b/data/Indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/bertolaa_who_int/Documents/_Personal/Famiglia/Andrea/progetti/Python/Apps/well-being/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{A88298E8-F077-43FE-A2CF-C3E477E9F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1544D6A-7017-4F4E-BAF2-7541F9A47C59}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="8_{A88298E8-F077-43FE-A2CF-C3E477E9F0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0586BC47-B11A-423E-A39C-502032B79351}"/>
   <bookViews>
-    <workbookView xWindow="6760" yWindow="22100" windowWidth="28800" windowHeight="15720" xr2:uid="{68CBDE48-A299-45F3-AEF9-F6BDBD70AE78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{68CBDE48-A299-45F3-AEF9-F6BDBD70AE78}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
@@ -2199,21 +2199,21 @@
   <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="38.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="38.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
     <col min="5" max="5" width="60" customWidth="1"/>
     <col min="6" max="6" width="74.5" customWidth="1"/>
-    <col min="7" max="7" width="50.6640625" customWidth="1"/>
+    <col min="7" max="7" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>372</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3349,12 +3349,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
         <v>121</v>
@@ -3372,7 +3372,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3418,12 +3418,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
         <v>121</v>
@@ -3441,7 +3441,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -5902,12 +5902,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>121</v>
@@ -5925,12 +5925,12 @@
         <v>373</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="s">
         <v>121</v>
@@ -5948,12 +5948,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="s">
         <v>121</v>
@@ -5971,7 +5971,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="33" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6389,7 +6389,7 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
